--- a/KM5c_data/DSDP_Site_214.xlsx
+++ b/KM5c_data/DSDP_Site_214.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -460,10 +460,15 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
+          <t>MgCa Coretop modelled temperature</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>MgCa Temperature anomaly_Original - Coretop</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>MgCa Temperature anomaly_BAYMAG - Coretop</t>
         </is>
@@ -544,19 +549,22 @@
         </is>
       </c>
       <c r="R2">
-        <v>27.18524928</v>
+        <v>27.01</v>
       </c>
       <c r="S2">
-        <v>-0.1852492800000007</v>
+        <v>-0.01264004177517464</v>
       </c>
       <c r="T2">
-        <v>-1.235549280000001</v>
+        <v>-1.062940041775175</v>
       </c>
       <c r="U2">
-        <v>-0.2019</v>
+        <v>27.2019</v>
       </c>
       <c r="V2">
-        <v>-1.2522</v>
+        <v>-0.2018999999999984</v>
+      </c>
+      <c r="W2">
+        <v>-1.252199999999998</v>
       </c>
     </row>
   </sheetData>
